--- a/CheckTest.xlsx
+++ b/CheckTest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="81">
   <si>
     <t>NUM_ID</t>
   </si>
@@ -124,15 +124,9 @@
     <t>7838027691</t>
   </si>
   <si>
-    <t>780532001</t>
-  </si>
-  <si>
     <t>014030106</t>
   </si>
   <si>
-    <t>40338000</t>
-  </si>
-  <si>
     <t>COLLECTION</t>
   </si>
   <si>
@@ -142,21 +136,12 @@
     <t>PHYSICAL</t>
   </si>
   <si>
-    <t>1000.00</t>
-  </si>
-  <si>
     <t>21.07.2025</t>
   </si>
   <si>
-    <t>1150000</t>
-  </si>
-  <si>
     <t>Б/Н</t>
   </si>
   <si>
-    <t>УФК ПО Г. САНКТ-ПЕТЕРБУРГУ (Кировский РОСП ГУФССП России по г. Санкт-Петербургу)</t>
-  </si>
-  <si>
     <t>03.03.2025</t>
   </si>
   <si>
@@ -208,36 +193,6 @@
     <t>ОТСУТСТВУЕТ ЭЦП</t>
   </si>
   <si>
-    <t>11.03.2025</t>
-  </si>
-  <si>
-    <t>29.11.1969</t>
-  </si>
-  <si>
-    <t>120602/25/78004-ИП</t>
-  </si>
-  <si>
-    <t>27.02.2025</t>
-  </si>
-  <si>
-    <t>ЦАФАП ОДД ГАИ УМВД России по Новгородской области</t>
-  </si>
-  <si>
-    <t>40817840600650000297</t>
-  </si>
-  <si>
-    <t>32278004250120602002</t>
-  </si>
-  <si>
-    <t>063153</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> СЕВЕРО-ЗАПАДНОЕ ГУ БАНКА РОССИИГУФК по г.Санкт-Петербургу г. Санкт-Петербург. УФК ПО Г. САНКТ-ПЕТЕРБУРГУ ( Кировский РОСП ГУФССИ России по г. Санкт-Петербургу),</t>
-  </si>
-  <si>
-    <t>Ошибка обработки: не найден счет 40817840600650000297 , КЛИЕНТ НЕ ИДЕНТИФИЦИРОВАН</t>
-  </si>
-  <si>
     <t>78031/25/4687606</t>
   </si>
   <si>
@@ -295,16 +250,10 @@
     <t>Test1 Имя1 Отч1</t>
   </si>
   <si>
-    <t>Test2 Имя2 Отч2</t>
-  </si>
-  <si>
     <t>Test3 Имя3 Отч3</t>
   </si>
   <si>
     <t>Test4 Имя4 Отч4</t>
-  </si>
-  <si>
-    <t>Test5 Имя5 Отч5</t>
   </si>
   <si>
     <t>Test6 Имя6 Отч6</t>
@@ -654,7 +603,7 @@
   <sheetPr codeName="collection"/>
   <dimension ref="A1:AH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -795,7 +744,7 @@
         <v>31</v>
       </c>
       <c r="AG1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AH1" t="s">
         <v>32</v>
@@ -803,43 +752,43 @@
     </row>
     <row r="2" spans="1:34">
       <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="C2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="K2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="G2" t="s">
+      <c r="M2" t="s">
         <v>52</v>
-      </c>
-      <c r="H2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M2" t="s">
-        <v>57</v>
       </c>
       <c r="N2" t="s">
         <v>33</v>
@@ -851,194 +800,96 @@
         <v>35</v>
       </c>
       <c r="Q2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH2" t="s">
         <v>58</v>
-      </c>
-      <c r="R2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S2" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" t="s">
-        <v>60</v>
-      </c>
-      <c r="U2" t="s">
-        <v>61</v>
-      </c>
-      <c r="V2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W2" t="s">
-        <v>33</v>
-      </c>
-      <c r="X2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" t="s">
-        <v>69</v>
-      </c>
-      <c r="L3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" t="s">
-        <v>70</v>
-      </c>
-      <c r="N3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" t="s">
-        <v>46</v>
-      </c>
-      <c r="S3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T3" t="s">
-        <v>38</v>
-      </c>
-      <c r="U3" t="s">
-        <v>71</v>
-      </c>
-      <c r="V3" t="s">
-        <v>43</v>
-      </c>
-      <c r="W3" t="s">
-        <v>33</v>
-      </c>
-      <c r="X3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:34">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="I4" t="s">
         <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="N4" t="s">
         <v>33</v>
@@ -1050,58 +901,58 @@
         <v>35</v>
       </c>
       <c r="Q4" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="R4" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="S4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" t="s">
+        <v>70</v>
+      </c>
+      <c r="U4" t="s">
+        <v>71</v>
+      </c>
+      <c r="V4" t="s">
+        <v>72</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB4" t="s">
         <v>37</v>
       </c>
-      <c r="T4" t="s">
-        <v>85</v>
-      </c>
-      <c r="U4" t="s">
-        <v>86</v>
-      </c>
-      <c r="V4" t="s">
-        <v>87</v>
-      </c>
-      <c r="W4" t="s">
-        <v>88</v>
-      </c>
-      <c r="X4" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE4" t="s">
         <v>39</v>
       </c>
-      <c r="AC4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>41</v>
-      </c>
       <c r="AF4" t="s">
         <v>33</v>
       </c>
       <c r="AG4" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AH4" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/CheckTest.xlsx
+++ b/CheckTest.xlsx
@@ -13,8 +13,24 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+    <author>Alcyone</author>
+  </authors>
+  <commentList>
+    <comment ref="K2" authorId="1">
+      <text>
+        <t>Ошибка: в поле данные не по формату - должны быть счета по 20 цифр, разделенные запятой</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="98">
   <si>
     <t>NUM_ID</t>
   </si>
@@ -124,9 +140,15 @@
     <t>7838027691</t>
   </si>
   <si>
+    <t>780532001</t>
+  </si>
+  <si>
     <t>014030106</t>
   </si>
   <si>
+    <t>40338000</t>
+  </si>
+  <si>
     <t>COLLECTION</t>
   </si>
   <si>
@@ -136,12 +158,21 @@
     <t>PHYSICAL</t>
   </si>
   <si>
+    <t>1000.00</t>
+  </si>
+  <si>
     <t>21.07.2025</t>
   </si>
   <si>
+    <t>1150000</t>
+  </si>
+  <si>
     <t>Б/Н</t>
   </si>
   <si>
+    <t>УФК ПО Г. САНКТ-ПЕТЕРБУРГУ (Кировский РОСП ГУФССП России по г. Санкт-Петербургу)</t>
+  </si>
+  <si>
     <t>03.03.2025</t>
   </si>
   <si>
@@ -193,6 +224,36 @@
     <t>ОТСУТСТВУЕТ ЭЦП</t>
   </si>
   <si>
+    <t>11.03.2025</t>
+  </si>
+  <si>
+    <t>29.11.1969</t>
+  </si>
+  <si>
+    <t>120602/25/78004-ИП</t>
+  </si>
+  <si>
+    <t>27.02.2025</t>
+  </si>
+  <si>
+    <t>ЦАФАП ОДД ГАИ УМВД России по Новгородской области</t>
+  </si>
+  <si>
+    <t>40817840600650000297</t>
+  </si>
+  <si>
+    <t>32278004250120602002</t>
+  </si>
+  <si>
+    <t>063153</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> СЕВЕРО-ЗАПАДНОЕ ГУ БАНКА РОССИИГУФК по г.Санкт-Петербургу г. Санкт-Петербург. УФК ПО Г. САНКТ-ПЕТЕРБУРГУ ( Кировский РОСП ГУФССИ России по г. Санкт-Петербургу),</t>
+  </si>
+  <si>
+    <t>Ошибка обработки: не найден счет 40817840600650000297 , КЛИЕНТ НЕ ИДЕНТИФИЦИРОВАН</t>
+  </si>
+  <si>
     <t>78031/25/4687606</t>
   </si>
   <si>
@@ -250,10 +311,16 @@
     <t>Test1 Имя1 Отч1</t>
   </si>
   <si>
+    <t>Test2 Имя2 Отч2</t>
+  </si>
+  <si>
     <t>Test3 Имя3 Отч3</t>
   </si>
   <si>
     <t>Test4 Имя4 Отч4</t>
+  </si>
+  <si>
+    <t>Test5 Имя5 Отч5</t>
   </si>
   <si>
     <t>Test6 Имя6 Отч6</t>
@@ -263,6 +330,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -270,7 +338,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,6 +347,11 @@
     </fill>
     <fill>
       <patternFill patternType="none">
+        <fgColor indexed="14"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightTrellis">
         <fgColor indexed="14"/>
       </patternFill>
     </fill>
@@ -295,9 +368,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -313,6 +387,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -603,360 +681,460 @@
   <sheetPr codeName="collection"/>
   <dimension ref="A1:AH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" customWidth="1"/>
-    <col min="3" max="3" width="41.33203125" customWidth="1"/>
-    <col min="4" max="4" width="33" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" customWidth="1"/>
-    <col min="8" max="8" width="27.6640625" customWidth="1"/>
-    <col min="9" max="9" width="16.88671875" customWidth="1"/>
-    <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="108.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" customWidth="1"/>
-    <col min="13" max="13" width="21.44140625" customWidth="1"/>
-    <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="15" max="15" width="21.44140625" customWidth="1"/>
-    <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="10" customWidth="1"/>
-    <col min="18" max="18" width="82.44140625" customWidth="1"/>
-    <col min="19" max="19" width="10.33203125" customWidth="1"/>
-    <col min="20" max="20" width="12.109375" customWidth="1"/>
-    <col min="21" max="21" width="12" customWidth="1"/>
-    <col min="22" max="22" width="14.109375" customWidth="1"/>
-    <col min="23" max="23" width="209.88671875" customWidth="1"/>
-    <col min="24" max="24" width="168.44140625" customWidth="1"/>
-    <col min="25" max="25" width="9.44140625" customWidth="1"/>
-    <col min="26" max="26" width="15.88671875" customWidth="1"/>
-    <col min="27" max="27" width="17.33203125" customWidth="1"/>
-    <col min="28" max="28" width="12.88671875" customWidth="1"/>
-    <col min="29" max="29" width="16.109375" customWidth="1"/>
-    <col min="30" max="30" width="8" customWidth="1"/>
-    <col min="31" max="31" width="12.33203125" customWidth="1"/>
-    <col min="32" max="32" width="11.44140625" customWidth="1"/>
-    <col min="33" max="33" width="20.44140625" customWidth="1"/>
-    <col min="34" max="34" width="100.6640625" customWidth="1"/>
-    <col min="35" max="35" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="8.5546875"/>
+    <col min="2" max="2" customWidth="true" width="10.109375"/>
+    <col min="3" max="3" customWidth="true" width="41.33203125"/>
+    <col min="4" max="4" customWidth="true" width="33.0"/>
+    <col min="5" max="5" customWidth="true" width="11.6640625"/>
+    <col min="6" max="6" customWidth="true" width="25.6640625"/>
+    <col min="7" max="7" customWidth="true" width="10.109375"/>
+    <col min="8" max="8" customWidth="true" width="27.6640625"/>
+    <col min="9" max="9" customWidth="true" width="16.88671875"/>
+    <col min="10" max="10" customWidth="true" width="8.0"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="108.44140625"/>
+    <col min="12" max="12" customWidth="true" width="16.33203125"/>
+    <col min="13" max="13" customWidth="true" width="21.44140625"/>
+    <col min="14" max="14" customWidth="true" width="11.0"/>
+    <col min="15" max="15" customWidth="true" width="21.44140625"/>
+    <col min="16" max="16" customWidth="true" width="11.0"/>
+    <col min="17" max="17" customWidth="true" width="10.0"/>
+    <col min="18" max="18" customWidth="true" width="82.44140625"/>
+    <col min="19" max="19" customWidth="true" width="10.33203125"/>
+    <col min="20" max="20" customWidth="true" width="12.109375"/>
+    <col min="21" max="21" customWidth="true" width="12.0"/>
+    <col min="22" max="22" customWidth="true" width="14.109375"/>
+    <col min="23" max="23" customWidth="true" width="209.88671875"/>
+    <col min="24" max="24" customWidth="true" width="168.44140625"/>
+    <col min="25" max="25" customWidth="true" width="9.44140625"/>
+    <col min="26" max="26" customWidth="true" width="15.88671875"/>
+    <col min="27" max="27" customWidth="true" width="17.33203125"/>
+    <col min="28" max="28" customWidth="true" width="12.88671875"/>
+    <col min="29" max="29" customWidth="true" width="16.109375"/>
+    <col min="30" max="30" customWidth="true" width="8.0"/>
+    <col min="31" max="31" customWidth="true" width="12.33203125"/>
+    <col min="32" max="32" customWidth="true" width="11.44140625"/>
+    <col min="33" max="33" customWidth="true" width="20.44140625"/>
+    <col min="34" max="34" customWidth="true" width="100.6640625"/>
+    <col min="35" max="35" customWidth="true" width="9.109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH1" t="s">
+      <c r="AG1" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="AH1" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:34">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="M2" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="N2" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="Q2" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="R2" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="S2" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="T2" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="U2" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="V2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="W2" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="X2" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="Y2" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="Z2" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AA2" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="AB2" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="AC2" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AD2" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="AE2" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="B2" t="s">
+      <c r="AF2" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AH2" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="J3" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="C2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="K3" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="L3" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="M3" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="N3" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="O3" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="P3" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="Q3" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="R3" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>53</v>
-      </c>
-      <c r="R2" t="s">
-        <v>54</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
-        <v>55</v>
-      </c>
-      <c r="U2" t="s">
-        <v>56</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="S3" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="T3" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="U3" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="V3" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="W3" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="X3" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="Y3" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="Z3" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AA3" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="AB3" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="AC3" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AD3" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="W2" t="s">
-        <v>33</v>
-      </c>
-      <c r="X2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>58</v>
+      <c r="AE3" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="AF3" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AH3" t="s" s="0">
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:34">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="A4" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="K4" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="E4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L4" t="s">
-        <v>66</v>
-      </c>
-      <c r="M4" t="s">
-        <v>67</v>
-      </c>
-      <c r="N4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="L4" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="M4" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="N4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="O4" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="Q4" t="s">
-        <v>68</v>
-      </c>
-      <c r="R4" t="s">
-        <v>69</v>
-      </c>
-      <c r="S4" t="s">
-        <v>36</v>
-      </c>
-      <c r="T4" t="s">
-        <v>70</v>
-      </c>
-      <c r="U4" t="s">
-        <v>71</v>
-      </c>
-      <c r="V4" t="s">
-        <v>72</v>
-      </c>
-      <c r="W4" t="s">
-        <v>73</v>
-      </c>
-      <c r="X4" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB4" t="s">
+      <c r="Q4" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="R4" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="S4" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="AC4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE4" t="s">
+      <c r="T4" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="U4" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="V4" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="W4" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="X4" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="Y4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="Z4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AA4" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="AB4" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="AF4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>76</v>
+      <c r="AC4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AD4" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="AE4" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="AF4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AG4" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="AH4" t="s" s="0">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/CheckTest.xlsx
+++ b/CheckTest.xlsx
@@ -22,7 +22,8 @@
   <commentList>
     <comment ref="K2" authorId="1">
       <text>
-        <t>Ошибка: в поле данные не по формату - должны быть счета по 20 цифр, разделенные запятой</t>
+        <t>Ошибка: в поле данные не по формату - должны быть счета по 20 цифр, разделенные запятой
+Ошибка: в поле данные не по формату - должны быть счета по 20 цифр, разделенные запятой</t>
       </text>
     </comment>
   </commentList>
@@ -368,9 +369,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
@@ -859,7 +861,7 @@
       <c r="J2" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>55</v>
       </c>
       <c r="L2" t="s" s="0">
